--- a/Simulation_20161129_SteadyState/Excel_info/Streamflow_July_to_Sep_Aves.xlsx
+++ b/Simulation_20161129_SteadyState/Excel_info/Streamflow_July_to_Sep_Aves.xlsx
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +522,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -562,7 +562,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -602,7 +602,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -642,11 +642,14 @@
         <v>1012</v>
       </c>
       <c r="G8">
-        <f>86400*E8*0.3048^3</f>
-        <v>10716.000889503746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <f>86400*B8*0.3048^3</f>
+        <v>24074.303368200195</v>
+      </c>
+      <c r="H8">
+        <v>109028.77340000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -666,7 +669,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -686,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -706,7 +709,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -726,7 +729,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -746,7 +749,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -766,7 +769,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -786,7 +789,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
